--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\Documents\GitHub\DataSecurity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8786F4D-E265-420F-BCB4-E7B3DC3CAB0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA0947-D47A-4AFF-9811-C5D0F5EA9371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AH63" sqref="AH63"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
